--- a/context.xlsx
+++ b/context.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -57,25 +57,64 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Комьютеризированная система 1С</t>
-  </si>
-  <si>
     <t>CSV.PL-0001</t>
   </si>
   <si>
     <t>ООО «МАКИЗ-ФАРМА»</t>
   </si>
   <si>
+    <t>1С Computerized system</t>
+  </si>
+  <si>
+    <t>RACode</t>
+  </si>
+  <si>
+    <t>RusAddres</t>
+  </si>
+  <si>
+    <t>EngAddres</t>
+  </si>
+  <si>
+    <t>Россия, г. Москва, Автомобильный проезд, д. 6/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia, Moscow, Automobilny proezd, 6/5 </t>
+  </si>
+  <si>
+    <t>CSV.RA-0001</t>
+  </si>
+  <si>
+    <t>CSV.CS-0001</t>
+  </si>
+  <si>
+    <t>CSV.UF-00001</t>
+  </si>
+  <si>
+    <t>CSV.TM-0001</t>
+  </si>
+  <si>
+    <t>Компьютеризированная система 1С</t>
+  </si>
+  <si>
+    <t>компьютеризированной системы 1С</t>
+  </si>
+  <si>
+    <t>RusTitleGenitive</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>22.11.2023</t>
+  </si>
+  <si>
+    <t>RusTitleObjective</t>
+  </si>
+  <si>
+    <t>компьютеризированной системой 1С</t>
+  </si>
+  <si>
     <t>MAKIZ-PHARMA LLC</t>
-  </si>
-  <si>
-    <t>1С Computerized system</t>
-  </si>
-  <si>
-    <t>RACode</t>
-  </si>
-  <si>
-    <t>NOT FILL</t>
   </si>
 </sst>
 </file>
@@ -393,16 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
     <col min="4" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -436,10 +475,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -447,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -458,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,7 +508,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -488,7 +530,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,7 +541,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -504,10 +552,65 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
